--- a/results/sequencing_depth/sequencing_depth_summarized_results.xlsx
+++ b/results/sequencing_depth/sequencing_depth_summarized_results.xlsx
@@ -9,13 +9,13 @@
     <sheet name="All" r:id="rId3" sheetId="1"/>
     <sheet name="Assigned" r:id="rId4" sheetId="2"/>
     <sheet name="Unassigned" r:id="rId5" sheetId="3"/>
-    <sheet name="Other metrics(unlabeled pctg, c" r:id="rId6" sheetId="4"/>
+    <sheet name="Supervised methods other metric" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="43">
   <si>
     <t>All results(assigned/unassigned combined)</t>
   </si>
@@ -134,16 +134,13 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>Other metrics(unlabeled pctg, cluster num...)</t>
+    <t>Other metrics(unlabeled pctg...)</t>
   </si>
   <si>
     <t>metrics</t>
   </si>
   <si>
     <t>unlabeled_pctg</t>
-  </si>
-  <si>
-    <t>cluster_num</t>
   </si>
   <si>
     <t>pred_type_max_pctg</t>
@@ -5040,25 +5037,25 @@
         <v>0.04</v>
       </c>
       <c r="D6" t="n">
-        <v>8.0</v>
+        <v>0.41028331584470096</v>
       </c>
       <c r="E6" t="n">
-        <v>8.0</v>
+        <v>0.36306400839454356</v>
       </c>
       <c r="F6" t="n">
-        <v>9.0</v>
+        <v>0.24134312696747115</v>
       </c>
       <c r="G6" t="n">
-        <v>4.0</v>
+        <v>0.9951031829310948</v>
       </c>
       <c r="H6" t="n">
-        <v>4.0</v>
+        <v>0.987757957327737</v>
       </c>
       <c r="I6" t="n">
-        <v>7.0</v>
+        <v>0.43126967471143757</v>
       </c>
       <c r="J6" t="n">
-        <v>8.0</v>
+        <v>0.34207764952780695</v>
       </c>
       <c r="K6" t="n">
         <v>0.46169453491872053</v>
@@ -5099,25 +5096,25 @@
         <v>0.96</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>0.9536447275300779</v>
       </c>
       <c r="E7" t="n">
-        <v>3.0</v>
+        <v>0.935244161358811</v>
       </c>
       <c r="F7" t="n">
-        <v>3.0</v>
+        <v>0.4953998584571833</v>
       </c>
       <c r="G7" t="n">
-        <v>3.0</v>
+        <v>0.9568294409058741</v>
       </c>
       <c r="H7" t="n">
-        <v>3.0</v>
+        <v>0.9529370134465676</v>
       </c>
       <c r="I7" t="n">
-        <v>3.0</v>
+        <v>0.9561217268223637</v>
       </c>
       <c r="J7" t="n">
-        <v>2.0</v>
+        <v>0.9557678697806087</v>
       </c>
       <c r="K7" t="n">
         <v>0.8516189049931947</v>
@@ -5149,120 +5146,120 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
         <v>0.04</v>
       </c>
       <c r="D8" t="n">
-        <v>0.41028331584470096</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36306400839454356</v>
+        <v>0.0512396694214876</v>
       </c>
       <c r="F8" t="n">
-        <v>0.24134312696747115</v>
+        <v>0.25950413223140495</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9951031829310948</v>
+        <v>0.44297520661157025</v>
       </c>
       <c r="H8" t="n">
-        <v>0.987757957327737</v>
+        <v>0.9881936245572609</v>
       </c>
       <c r="I8" t="n">
-        <v>0.43126967471143757</v>
+        <v>7.083825265643448E-4</v>
       </c>
       <c r="J8" t="n">
-        <v>0.34207764952780695</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.46169453491872053</v>
+        <v>0.8333825363381766</v>
       </c>
       <c r="L8" t="n">
-        <v>1.421200440118457</v>
+        <v>1.3534311234380323</v>
       </c>
       <c r="M8" t="n">
-        <v>0.014339117335267533</v>
+        <v>0.015487703107358499</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0021759750041845678</v>
+        <v>9.326984438662797E-4</v>
       </c>
       <c r="O8" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.42147604057362714</v>
+        <v>0.5546635182998819</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9870347399782955</v>
+        <v>0.9871344818087291</v>
       </c>
       <c r="R8" t="n">
-        <v>2859.0</v>
+        <v>4235.0</v>
       </c>
       <c r="S8" t="n">
-        <v>17923.0</v>
+        <v>40742.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
         <v>0.96</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9536447275300779</v>
+        <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.935244161358811</v>
+        <v>0.02318909873296677</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4953998584571833</v>
+        <v>0.35500836720057377</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9568294409058741</v>
+        <v>9.562514941429596E-4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9529370134465676</v>
+        <v>0.015778149653358834</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9561217268223637</v>
+        <v>0.0019125029882859192</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9557678697806087</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8516189049931947</v>
+        <v>0.964960158236802</v>
       </c>
       <c r="L9" t="n">
-        <v>0.18213756651685886</v>
+        <v>0.09082410104264134</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7740054678346259</v>
+        <v>0.6856069903293898</v>
       </c>
       <c r="N9" t="n">
-        <v>0.19599118451152153</v>
+        <v>0.20856855333562407</v>
       </c>
       <c r="O9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9561217268223637</v>
+        <v>0.9818312216112838</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6790531043803446</v>
+        <v>0.8125688511579011</v>
       </c>
       <c r="R9" t="n">
-        <v>2826.0</v>
+        <v>4183.0</v>
       </c>
       <c r="S9" t="n">
-        <v>17923.0</v>
+        <v>40742.0</v>
       </c>
     </row>
     <row r="10">
@@ -5270,16 +5267,16 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>0.04</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>0.6370720188902007</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0512396694214876</v>
+        <v>0.5022432113341204</v>
       </c>
       <c r="F10" t="n">
         <v>0.25950413223140495</v>
@@ -5291,10 +5288,10 @@
         <v>0.9881936245572609</v>
       </c>
       <c r="I10" t="n">
-        <v>7.083825265643448E-4</v>
+        <v>0.5742621015348288</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>0.5171192443919717</v>
       </c>
       <c r="K10" t="n">
         <v>0.8333825363381766</v>
@@ -5329,31 +5326,31 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
         <v>0.96</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>0.9818312216112838</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02318909873296677</v>
+        <v>0.9579249342577097</v>
       </c>
       <c r="F11" t="n">
-        <v>0.35500836720057377</v>
+        <v>0.3899115467367918</v>
       </c>
       <c r="G11" t="n">
-        <v>9.562514941429596E-4</v>
+        <v>0.9823093473583553</v>
       </c>
       <c r="H11" t="n">
-        <v>0.015778149653358834</v>
+        <v>0.9660530719579249</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0019125029882859192</v>
+        <v>0.9818312216112838</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>0.9813530958642123</v>
       </c>
       <c r="K11" t="n">
         <v>0.964960158236802</v>
@@ -5385,243 +5382,243 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="D12" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
+        <v>0.19462781698156156</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3127703164124744</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.338037787389028</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5190075119508308</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.2763487366264513E-4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9414325879769584</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.5530447878456826</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.04758663717316091</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.011003346378537802</v>
+      </c>
+      <c r="O12" t="n">
         <v>8.0</v>
       </c>
-      <c r="F12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.8333825363381766</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.3534311234380323</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.015487703107358499</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9.326984438662797E-4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>7.0</v>
-      </c>
       <c r="P12" t="n">
-        <v>0.5546635182998819</v>
+        <v>0.41201912132938767</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9871344818087291</v>
+        <v>0.9770099622889928</v>
       </c>
       <c r="R12" t="n">
-        <v>4235.0</v>
+        <v>4393.0</v>
       </c>
       <c r="S12" t="n">
-        <v>40742.0</v>
+        <v>17631.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="D13" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.0</v>
+        <v>0.1380333105179101</v>
       </c>
       <c r="F13" t="n">
-        <v>3.0</v>
+        <v>0.3294547113848962</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0</v>
+        <v>0.24001825233858087</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0</v>
+        <v>0.01597079625827059</v>
       </c>
       <c r="I13" t="n">
-        <v>3.0</v>
+        <v>2.2815423226100844E-4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.964960158236802</v>
+        <v>0.9078729423791295</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09082410104264134</v>
+        <v>1.4816605998416779</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6856069903293898</v>
+        <v>0.14701378254211334</v>
       </c>
       <c r="N13" t="n">
-        <v>0.20856855333562407</v>
+        <v>0.06278713629402756</v>
       </c>
       <c r="O13" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9818312216112838</v>
+        <v>0.5188227241615332</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8125688511579011</v>
+        <v>0.9503016130106947</v>
       </c>
       <c r="R13" t="n">
-        <v>4183.0</v>
+        <v>4383.0</v>
       </c>
       <c r="S13" t="n">
-        <v>40742.0</v>
+        <v>17631.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04</v>
+        <v>0.3</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6370720188902007</v>
+        <v>0.429091736854086</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5022432113341204</v>
+        <v>0.24129296608240383</v>
       </c>
       <c r="F14" t="n">
-        <v>0.25950413223140495</v>
+        <v>0.3127703164124744</v>
       </c>
       <c r="G14" t="n">
-        <v>0.44297520661157025</v>
+        <v>0.338037787389028</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9881936245572609</v>
+        <v>0.5190075119508308</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5742621015348288</v>
+        <v>0.42704302299112223</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5171192443919717</v>
+        <v>0.4183928977919417</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8333825363381766</v>
+        <v>0.9414325879769584</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3534311234380323</v>
+        <v>1.5530447878456826</v>
       </c>
       <c r="M14" t="n">
-        <v>0.015487703107358499</v>
+        <v>0.04758663717316091</v>
       </c>
       <c r="N14" t="n">
-        <v>9.326984438662797E-4</v>
+        <v>0.011003346378537802</v>
       </c>
       <c r="O14" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5546635182998819</v>
+        <v>0.41201912132938767</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9871344818087291</v>
+        <v>0.9770099622889928</v>
       </c>
       <c r="R14" t="n">
-        <v>4235.0</v>
+        <v>4393.0</v>
       </c>
       <c r="S14" t="n">
-        <v>40742.0</v>
+        <v>17631.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="n">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9818312216112838</v>
+        <v>0.5473420031941593</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9579249342577097</v>
+        <v>0.33173625370750626</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3899115467367918</v>
+        <v>0.3294547113848962</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9823093473583553</v>
+        <v>0.4679443303673283</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9660530719579249</v>
+        <v>0.5183664156970111</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9818312216112838</v>
+        <v>0.5473420031941593</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9813530958642123</v>
+        <v>0.5101528633356148</v>
       </c>
       <c r="K15" t="n">
-        <v>0.964960158236802</v>
+        <v>0.9078729423791295</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09082410104264134</v>
+        <v>1.4816605998416779</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6856069903293898</v>
+        <v>0.14701378254211334</v>
       </c>
       <c r="N15" t="n">
-        <v>0.20856855333562407</v>
+        <v>0.06278713629402756</v>
       </c>
       <c r="O15" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9818312216112838</v>
+        <v>0.5188227241615332</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8125688511579011</v>
+        <v>0.9503016130106947</v>
       </c>
       <c r="R15" t="n">
-        <v>4183.0</v>
+        <v>4383.0</v>
       </c>
       <c r="S15" t="n">
-        <v>40742.0</v>
+        <v>17631.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -5633,54 +5630,54 @@
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.19462781698156156</v>
+        <v>0.17232437529467232</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3127703164124744</v>
+        <v>0.45025931164545024</v>
       </c>
       <c r="G16" t="n">
-        <v>0.338037787389028</v>
+        <v>0.384016973125884</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5190075119508308</v>
+        <v>0.7972654408297972</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2763487366264513E-4</v>
+        <v>0.0</v>
       </c>
       <c r="J16" t="n">
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9414325879769584</v>
+        <v>0.9329020527019377</v>
       </c>
       <c r="L16" t="n">
-        <v>1.5530447878456826</v>
+        <v>1.5410278788958056</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04758663717316091</v>
+        <v>0.051867699780270615</v>
       </c>
       <c r="N16" t="n">
-        <v>0.011003346378537802</v>
+        <v>0.011738175089626462</v>
       </c>
       <c r="O16" t="n">
         <v>8.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.41201912132938767</v>
+        <v>0.43092880716643095</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9770099622889928</v>
+        <v>0.9757251072461407</v>
       </c>
       <c r="R16" t="n">
-        <v>4393.0</v>
+        <v>4242.0</v>
       </c>
       <c r="S16" t="n">
-        <v>17631.0</v>
+        <v>17294.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -5692,54 +5689,54 @@
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1380333105179101</v>
+        <v>0.11693834160170093</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3294547113848962</v>
+        <v>0.6966690290574061</v>
       </c>
       <c r="G17" t="n">
-        <v>0.24001825233858087</v>
+        <v>0.3000236239073943</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01597079625827059</v>
+        <v>0.007087172218284904</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2815423226100844E-4</v>
+        <v>7.087172218284905E-4</v>
       </c>
       <c r="J17" t="n">
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9078729423791295</v>
+        <v>0.9020230502642154</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4816605998416779</v>
+        <v>1.4864608909136783</v>
       </c>
       <c r="M17" t="n">
-        <v>0.14701378254211334</v>
+        <v>0.16173239273736556</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06278713629402756</v>
+        <v>0.06944605065340581</v>
       </c>
       <c r="O17" t="n">
         <v>8.0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5188227241615332</v>
+        <v>0.5086227261989134</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.9503016130106947</v>
+        <v>0.9495887071438974</v>
       </c>
       <c r="R17" t="n">
-        <v>4383.0</v>
+        <v>4233.0</v>
       </c>
       <c r="S17" t="n">
-        <v>17631.0</v>
+        <v>17294.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
@@ -5748,57 +5745,57 @@
         <v>0.3</v>
       </c>
       <c r="D18" t="n">
-        <v>8.0</v>
+        <v>0.4014615747289015</v>
       </c>
       <c r="E18" t="n">
-        <v>9.0</v>
+        <v>0.22442244224422442</v>
       </c>
       <c r="F18" t="n">
-        <v>9.0</v>
+        <v>0.45025931164545024</v>
       </c>
       <c r="G18" t="n">
-        <v>8.0</v>
+        <v>0.384016973125884</v>
       </c>
       <c r="H18" t="n">
-        <v>7.0</v>
+        <v>0.7972654408297972</v>
       </c>
       <c r="I18" t="n">
-        <v>8.0</v>
+        <v>0.45002357378595004</v>
       </c>
       <c r="J18" t="n">
-        <v>8.0</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9414325879769584</v>
+        <v>0.9329020527019377</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5530447878456826</v>
+        <v>1.5410278788958056</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04758663717316091</v>
+        <v>0.051867699780270615</v>
       </c>
       <c r="N18" t="n">
-        <v>0.011003346378537802</v>
+        <v>0.011738175089626462</v>
       </c>
       <c r="O18" t="n">
         <v>8.0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.41201912132938767</v>
+        <v>0.43092880716643095</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9770099622889928</v>
+        <v>0.9757251072461407</v>
       </c>
       <c r="R18" t="n">
-        <v>4393.0</v>
+        <v>4242.0</v>
       </c>
       <c r="S18" t="n">
-        <v>17631.0</v>
+        <v>17294.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -5807,529 +5804,529 @@
         <v>0.7</v>
       </c>
       <c r="D19" t="n">
-        <v>8.0</v>
+        <v>0.5565792582093079</v>
       </c>
       <c r="E19" t="n">
-        <v>9.0</v>
+        <v>0.40184266477675407</v>
       </c>
       <c r="F19" t="n">
-        <v>9.0</v>
+        <v>0.6966690290574061</v>
       </c>
       <c r="G19" t="n">
-        <v>8.0</v>
+        <v>0.40562248995983935</v>
       </c>
       <c r="H19" t="n">
-        <v>9.0</v>
+        <v>0.5114575950862272</v>
       </c>
       <c r="I19" t="n">
-        <v>9.0</v>
+        <v>0.545239782660052</v>
       </c>
       <c r="J19" t="n">
-        <v>8.0</v>
+        <v>0.5246869832270258</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9078729423791295</v>
+        <v>0.9020230502642154</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4816605998416779</v>
+        <v>1.4864608909136783</v>
       </c>
       <c r="M19" t="n">
-        <v>0.14701378254211334</v>
+        <v>0.16173239273736556</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06278713629402756</v>
+        <v>0.06944605065340581</v>
       </c>
       <c r="O19" t="n">
         <v>8.0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5188227241615332</v>
+        <v>0.5086227261989134</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.9503016130106947</v>
+        <v>0.9495887071438974</v>
       </c>
       <c r="R19" t="n">
-        <v>4383.0</v>
+        <v>4233.0</v>
       </c>
       <c r="S19" t="n">
-        <v>17631.0</v>
+        <v>17294.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
         <v>0.3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.429091736854086</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.24129296608240383</v>
+        <v>0.17533856022808267</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3127703164124744</v>
+        <v>0.5172249940603468</v>
       </c>
       <c r="G20" t="n">
-        <v>0.338037787389028</v>
+        <v>0.6942266571632216</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5190075119508308</v>
+        <v>0.7177476835352815</v>
       </c>
       <c r="I20" t="n">
-        <v>0.42704302299112223</v>
+        <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4183928977919417</v>
+        <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9414325879769584</v>
+        <v>0.900616990422771</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5530447878456826</v>
+        <v>1.6907098863258252</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04758663717316091</v>
+        <v>0.03080301835792319</v>
       </c>
       <c r="N20" t="n">
-        <v>0.011003346378537802</v>
+        <v>0.009911026016443291</v>
       </c>
       <c r="O20" t="n">
         <v>8.0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.41201912132938767</v>
+        <v>0.29413162271323356</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.9770099622889928</v>
+        <v>0.9853643307902066</v>
       </c>
       <c r="R20" t="n">
-        <v>4393.0</v>
+        <v>4209.0</v>
       </c>
       <c r="S20" t="n">
-        <v>17631.0</v>
+        <v>17758.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
         <v>0.7</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5473420031941593</v>
+        <v>0.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.33173625370750626</v>
+        <v>0.1431297709923664</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3294547113848962</v>
+        <v>0.29532442748091603</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4679443303673283</v>
+        <v>0.38406488549618323</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5183664156970111</v>
+        <v>0.12380725190839695</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5473420031941593</v>
+        <v>0.0014312977099236641</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5101528633356148</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9078729423791295</v>
+        <v>0.9427641489890349</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4816605998416779</v>
+        <v>1.5692256117708148</v>
       </c>
       <c r="M21" t="n">
-        <v>0.14701378254211334</v>
+        <v>0.07348800540601419</v>
       </c>
       <c r="N21" t="n">
-        <v>0.06278713629402756</v>
+        <v>0.029001013627660777</v>
       </c>
       <c r="O21" t="n">
         <v>8.0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5188227241615332</v>
+        <v>0.4327290076335878</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.9503016130106947</v>
+        <v>0.9693089218363253</v>
       </c>
       <c r="R21" t="n">
-        <v>4383.0</v>
+        <v>4192.0</v>
       </c>
       <c r="S21" t="n">
-        <v>17631.0</v>
+        <v>17758.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="n">
         <v>0.3</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>0.3549536707056308</v>
       </c>
       <c r="E22" t="n">
-        <v>0.17232437529467232</v>
+        <v>0.2342599192207175</v>
       </c>
       <c r="F22" t="n">
-        <v>0.45025931164545024</v>
+        <v>0.5172249940603468</v>
       </c>
       <c r="G22" t="n">
-        <v>0.384016973125884</v>
+        <v>0.6942266571632216</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7972654408297972</v>
+        <v>0.7177476835352815</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>0.3171774768353528</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>0.37491090520313614</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9329020527019377</v>
+        <v>0.900616990422771</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5410278788958056</v>
+        <v>1.6907098863258252</v>
       </c>
       <c r="M22" t="n">
-        <v>0.051867699780270615</v>
+        <v>0.03080301835792319</v>
       </c>
       <c r="N22" t="n">
-        <v>0.011738175089626462</v>
+        <v>0.009911026016443291</v>
       </c>
       <c r="O22" t="n">
         <v>8.0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.43092880716643095</v>
+        <v>0.29413162271323356</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.9757251072461407</v>
+        <v>0.9853643307902066</v>
       </c>
       <c r="R22" t="n">
-        <v>4242.0</v>
+        <v>4209.0</v>
       </c>
       <c r="S22" t="n">
-        <v>17294.0</v>
+        <v>17758.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="n">
         <v>0.7</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>0.4780534351145038</v>
       </c>
       <c r="E23" t="n">
-        <v>0.11693834160170093</v>
+        <v>0.28912213740458015</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6966690290574061</v>
+        <v>0.29532442748091603</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3000236239073943</v>
+        <v>0.38406488549618323</v>
       </c>
       <c r="H23" t="n">
-        <v>0.007087172218284904</v>
+        <v>0.34947519083969464</v>
       </c>
       <c r="I23" t="n">
-        <v>7.087172218284905E-4</v>
+        <v>0.44656488549618323</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0</v>
+        <v>0.4749522900763359</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9020230502642154</v>
+        <v>0.9427641489890349</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4864608909136783</v>
+        <v>1.5692256117708148</v>
       </c>
       <c r="M23" t="n">
-        <v>0.16173239273736556</v>
+        <v>0.07348800540601419</v>
       </c>
       <c r="N23" t="n">
-        <v>0.06944605065340581</v>
+        <v>0.029001013627660777</v>
       </c>
       <c r="O23" t="n">
         <v>8.0</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5086227261989134</v>
+        <v>0.4327290076335878</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.9495887071438974</v>
+        <v>0.9693089218363253</v>
       </c>
       <c r="R23" t="n">
-        <v>4233.0</v>
+        <v>4192.0</v>
       </c>
       <c r="S23" t="n">
-        <v>17294.0</v>
+        <v>17758.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="n">
         <v>0.3</v>
       </c>
       <c r="D24" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E24" t="n">
-        <v>9.0</v>
+        <v>0.186</v>
       </c>
       <c r="F24" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" t="n">
-        <v>7.0</v>
+        <v>0.81</v>
       </c>
       <c r="H24" t="n">
-        <v>8.0</v>
+        <v>0.258</v>
       </c>
       <c r="I24" t="n">
-        <v>7.0</v>
+        <v>0.046</v>
       </c>
       <c r="J24" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9329020527019377</v>
+        <v>0.9579560840633208</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5410278788958056</v>
+        <v>2.9620948970115304</v>
       </c>
       <c r="M24" t="n">
-        <v>0.051867699780270615</v>
+        <v>0.15052992678306282</v>
       </c>
       <c r="N24" t="n">
-        <v>0.011738175089626462</v>
+        <v>0.04903742767907432</v>
       </c>
       <c r="O24" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.43092880716643095</v>
+        <v>0.106</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.9757251072461407</v>
+        <v>0.9235362244636731</v>
       </c>
       <c r="R24" t="n">
-        <v>4242.0</v>
+        <v>500.0</v>
       </c>
       <c r="S24" t="n">
-        <v>17294.0</v>
+        <v>19531.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="n">
         <v>0.7</v>
       </c>
       <c r="D25" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" t="n">
-        <v>9.0</v>
+        <v>0.1523046092184369</v>
       </c>
       <c r="F25" t="n">
-        <v>9.0</v>
+        <v>0.9839679358717435</v>
       </c>
       <c r="G25" t="n">
-        <v>8.0</v>
+        <v>0.5390781563126252</v>
       </c>
       <c r="H25" t="n">
-        <v>9.0</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="I25" t="n">
-        <v>9.0</v>
+        <v>0.07014028056112225</v>
       </c>
       <c r="J25" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9020230502642154</v>
+        <v>0.9668327370130694</v>
       </c>
       <c r="L25" t="n">
-        <v>1.4864608909136783</v>
+        <v>2.6772312624232333</v>
       </c>
       <c r="M25" t="n">
-        <v>0.16173239273736556</v>
+        <v>0.4717628385643336</v>
       </c>
       <c r="N25" t="n">
-        <v>0.06944605065340581</v>
+        <v>0.14028979570938505</v>
       </c>
       <c r="O25" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5086227261989134</v>
+        <v>0.218436873747495</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.9495887071438974</v>
+        <v>0.8257861275774631</v>
       </c>
       <c r="R25" t="n">
-        <v>4233.0</v>
+        <v>499.0</v>
       </c>
       <c r="S25" t="n">
-        <v>17294.0</v>
+        <v>19531.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="n">
         <v>0.3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4014615747289015</v>
+        <v>0.11</v>
       </c>
       <c r="E26" t="n">
-        <v>0.22442244224422442</v>
+        <v>0.186</v>
       </c>
       <c r="F26" t="n">
-        <v>0.45025931164545024</v>
+        <v>1.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.384016973125884</v>
+        <v>0.81</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7972654408297972</v>
+        <v>0.258</v>
       </c>
       <c r="I26" t="n">
-        <v>0.45002357378595004</v>
+        <v>0.116</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4523809523809524</v>
+        <v>0.11</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9329020527019377</v>
+        <v>0.9579560840633208</v>
       </c>
       <c r="L26" t="n">
-        <v>1.5410278788958056</v>
+        <v>2.9620948970115304</v>
       </c>
       <c r="M26" t="n">
-        <v>0.051867699780270615</v>
+        <v>0.15052992678306282</v>
       </c>
       <c r="N26" t="n">
-        <v>0.011738175089626462</v>
+        <v>0.04903742767907432</v>
       </c>
       <c r="O26" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.43092880716643095</v>
+        <v>0.106</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.9757251072461407</v>
+        <v>0.9235362244636731</v>
       </c>
       <c r="R26" t="n">
-        <v>4242.0</v>
+        <v>500.0</v>
       </c>
       <c r="S26" t="n">
-        <v>17294.0</v>
+        <v>19531.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" t="n">
         <v>0.7</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5565792582093079</v>
+        <v>0.23446893787575152</v>
       </c>
       <c r="E27" t="n">
-        <v>0.40184266477675407</v>
+        <v>0.16432865731462926</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6966690290574061</v>
+        <v>0.9839679358717435</v>
       </c>
       <c r="G27" t="n">
-        <v>0.40562248995983935</v>
+        <v>0.5390781563126252</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5114575950862272</v>
+        <v>0.21442885771543085</v>
       </c>
       <c r="I27" t="n">
-        <v>0.545239782660052</v>
+        <v>0.29458917835671344</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5246869832270258</v>
+        <v>0.25851703406813625</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9020230502642154</v>
+        <v>0.9668327370130694</v>
       </c>
       <c r="L27" t="n">
-        <v>1.4864608909136783</v>
+        <v>2.6772312624232333</v>
       </c>
       <c r="M27" t="n">
-        <v>0.16173239273736556</v>
+        <v>0.4717628385643336</v>
       </c>
       <c r="N27" t="n">
-        <v>0.06944605065340581</v>
+        <v>0.14028979570938505</v>
       </c>
       <c r="O27" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5086227261989134</v>
+        <v>0.218436873747495</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.9495887071438974</v>
+        <v>0.8257861275774631</v>
       </c>
       <c r="R27" t="n">
-        <v>4233.0</v>
+        <v>499.0</v>
       </c>
       <c r="S27" t="n">
-        <v>17294.0</v>
+        <v>19531.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
@@ -6341,54 +6338,54 @@
         <v>0.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.17533856022808267</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5172249940603468</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6942266571632216</v>
+        <v>0.7721238938053098</v>
       </c>
       <c r="H28" t="n">
-        <v>0.7177476835352815</v>
+        <v>0.13938053097345132</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0</v>
+        <v>0.05088495575221239</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.900616990422771</v>
+        <v>0.9671998868812455</v>
       </c>
       <c r="L28" t="n">
-        <v>1.6907098863258252</v>
+        <v>2.7650550438048658</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03080301835792319</v>
+        <v>0.2383696708790446</v>
       </c>
       <c r="N28" t="n">
-        <v>0.009911026016443291</v>
+        <v>0.07979215849650506</v>
       </c>
       <c r="O28" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="P28" t="n">
-        <v>0.29413162271323356</v>
+        <v>0.1570796460176991</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9853643307902066</v>
+        <v>0.9087617501502372</v>
       </c>
       <c r="R28" t="n">
-        <v>4209.0</v>
+        <v>452.0</v>
       </c>
       <c r="S28" t="n">
-        <v>17758.0</v>
+        <v>21603.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
@@ -6400,54 +6397,54 @@
         <v>0.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1431297709923664</v>
+        <v>0.19911504424778761</v>
       </c>
       <c r="F29" t="n">
-        <v>0.29532442748091603</v>
+        <v>0.995575221238938</v>
       </c>
       <c r="G29" t="n">
-        <v>0.38406488549618323</v>
+        <v>0.5995575221238938</v>
       </c>
       <c r="H29" t="n">
-        <v>0.12380725190839695</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0014312977099236641</v>
+        <v>0.059734513274336286</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9427641489890349</v>
+        <v>0.9387770768358814</v>
       </c>
       <c r="L29" t="n">
-        <v>1.5692256117708148</v>
+        <v>2.688997583987383</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07348800540601419</v>
+        <v>0.6686339860204602</v>
       </c>
       <c r="N29" t="n">
-        <v>0.029001013627660777</v>
+        <v>0.24196870804980786</v>
       </c>
       <c r="O29" t="n">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.4327290076335878</v>
+        <v>0.2345132743362832</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.9693089218363253</v>
+        <v>0.8118354792578383</v>
       </c>
       <c r="R29" t="n">
-        <v>4192.0</v>
+        <v>452.0</v>
       </c>
       <c r="S29" t="n">
-        <v>17758.0</v>
+        <v>21603.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -6456,57 +6453,57 @@
         <v>0.3</v>
       </c>
       <c r="D30" t="n">
-        <v>8.0</v>
+        <v>0.19690265486725664</v>
       </c>
       <c r="E30" t="n">
-        <v>9.0</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="F30" t="n">
-        <v>9.0</v>
+        <v>0.9911504424778761</v>
       </c>
       <c r="G30" t="n">
-        <v>8.0</v>
+        <v>0.7721238938053098</v>
       </c>
       <c r="H30" t="n">
-        <v>9.0</v>
+        <v>0.13938053097345132</v>
       </c>
       <c r="I30" t="n">
-        <v>7.0</v>
+        <v>0.20575221238938052</v>
       </c>
       <c r="J30" t="n">
-        <v>8.0</v>
+        <v>0.14601769911504425</v>
       </c>
       <c r="K30" t="n">
-        <v>0.900616990422771</v>
+        <v>0.9671998868812455</v>
       </c>
       <c r="L30" t="n">
-        <v>1.6907098863258252</v>
+        <v>2.7650550438048658</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03080301835792319</v>
+        <v>0.2383696708790446</v>
       </c>
       <c r="N30" t="n">
-        <v>0.009911026016443291</v>
+        <v>0.07979215849650506</v>
       </c>
       <c r="O30" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.29413162271323356</v>
+        <v>0.1570796460176991</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.9853643307902066</v>
+        <v>0.9087617501502372</v>
       </c>
       <c r="R30" t="n">
-        <v>4209.0</v>
+        <v>452.0</v>
       </c>
       <c r="S30" t="n">
-        <v>17758.0</v>
+        <v>21603.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -6515,529 +6512,529 @@
         <v>0.7</v>
       </c>
       <c r="D31" t="n">
-        <v>8.0</v>
+        <v>0.12389380530973451</v>
       </c>
       <c r="E31" t="n">
-        <v>9.0</v>
+        <v>0.19911504424778761</v>
       </c>
       <c r="F31" t="n">
-        <v>9.0</v>
+        <v>0.995575221238938</v>
       </c>
       <c r="G31" t="n">
-        <v>8.0</v>
+        <v>0.5995575221238938</v>
       </c>
       <c r="H31" t="n">
-        <v>8.0</v>
+        <v>0.28982300884955753</v>
       </c>
       <c r="I31" t="n">
-        <v>9.0</v>
+        <v>0.36283185840707965</v>
       </c>
       <c r="J31" t="n">
-        <v>8.0</v>
+        <v>0.23893805309734514</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9427641489890349</v>
+        <v>0.9387770768358814</v>
       </c>
       <c r="L31" t="n">
-        <v>1.5692256117708148</v>
+        <v>2.688997583987383</v>
       </c>
       <c r="M31" t="n">
-        <v>0.07348800540601419</v>
+        <v>0.6686339860204602</v>
       </c>
       <c r="N31" t="n">
-        <v>0.029001013627660777</v>
+        <v>0.24196870804980786</v>
       </c>
       <c r="O31" t="n">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.4327290076335878</v>
+        <v>0.2345132743362832</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.9693089218363253</v>
+        <v>0.8118354792578383</v>
       </c>
       <c r="R31" t="n">
-        <v>4192.0</v>
+        <v>452.0</v>
       </c>
       <c r="S31" t="n">
-        <v>17758.0</v>
+        <v>21603.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" t="n">
         <v>0.3</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3549536707056308</v>
+        <v>0.0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2342599192207175</v>
+        <v>0.06045751633986928</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5172249940603468</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6942266571632216</v>
+        <v>0.06045751633986928</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7177476835352815</v>
+        <v>0.03594771241830065</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3171774768353528</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="J32" t="n">
-        <v>0.37491090520313614</v>
+        <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.900616990422771</v>
+        <v>0.5564127861613686</v>
       </c>
       <c r="L32" t="n">
-        <v>1.6907098863258252</v>
+        <v>1.632560737479132</v>
       </c>
       <c r="M32" t="n">
-        <v>0.03080301835792319</v>
+        <v>2.7133750455784016</v>
       </c>
       <c r="N32" t="n">
-        <v>0.009911026016443291</v>
+        <v>1.317259580602684</v>
       </c>
       <c r="O32" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="P32" t="n">
-        <v>0.29413162271323356</v>
+        <v>0.39869281045751637</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.9853643307902066</v>
+        <v>0.7900575759524704</v>
       </c>
       <c r="R32" t="n">
-        <v>4209.0</v>
+        <v>612.0</v>
       </c>
       <c r="S32" t="n">
-        <v>17758.0</v>
+        <v>18902.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="n">
         <v>0.7</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4780534351145038</v>
+        <v>0.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.28912213740458015</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="F33" t="n">
-        <v>0.29532442748091603</v>
+        <v>0.31209150326797386</v>
       </c>
       <c r="G33" t="n">
-        <v>0.38406488549618323</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="H33" t="n">
-        <v>0.34947519083969464</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="I33" t="n">
-        <v>0.44656488549618323</v>
+        <v>0.011437908496732025</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4749522900763359</v>
+        <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9427641489890349</v>
+        <v>0.6574251195821748</v>
       </c>
       <c r="L33" t="n">
-        <v>1.5692256117708148</v>
+        <v>1.3106269939064874</v>
       </c>
       <c r="M33" t="n">
-        <v>0.07348800540601419</v>
+        <v>10.383942590495</v>
       </c>
       <c r="N33" t="n">
-        <v>0.029001013627660777</v>
+        <v>5.680054998850768</v>
       </c>
       <c r="O33" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.4327290076335878</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.9693089218363253</v>
+        <v>0.6584198822547395</v>
       </c>
       <c r="R33" t="n">
-        <v>4192.0</v>
+        <v>612.0</v>
       </c>
       <c r="S33" t="n">
-        <v>17758.0</v>
+        <v>18902.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C34" t="n">
         <v>0.3</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>0.380718954248366</v>
       </c>
       <c r="E34" t="n">
-        <v>0.186</v>
+        <v>0.3709150326797386</v>
       </c>
       <c r="F34" t="n">
-        <v>1.0</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="G34" t="n">
-        <v>0.81</v>
+        <v>0.37745098039215685</v>
       </c>
       <c r="H34" t="n">
-        <v>0.258</v>
+        <v>0.37745098039215685</v>
       </c>
       <c r="I34" t="n">
-        <v>0.046</v>
+        <v>0.3839869281045752</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>0.3839869281045752</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9579560840633208</v>
+        <v>0.5564127861613686</v>
       </c>
       <c r="L34" t="n">
-        <v>2.9620948970115304</v>
+        <v>1.632560737479132</v>
       </c>
       <c r="M34" t="n">
-        <v>0.15052992678306282</v>
+        <v>2.7133750455784016</v>
       </c>
       <c r="N34" t="n">
-        <v>0.04903742767907432</v>
+        <v>1.317259580602684</v>
       </c>
       <c r="O34" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.106</v>
+        <v>0.39869281045751637</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.9235362244636731</v>
+        <v>0.7900575759524704</v>
       </c>
       <c r="R34" t="n">
-        <v>500.0</v>
+        <v>612.0</v>
       </c>
       <c r="S34" t="n">
-        <v>19531.0</v>
+        <v>18902.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" t="n">
         <v>0.7</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1523046092184369</v>
+        <v>0.4526143790849673</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9839679358717435</v>
+        <v>0.31209150326797386</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5390781563126252</v>
+        <v>0.46568627450980393</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04609218436873747</v>
+        <v>0.46568627450980393</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07014028056112225</v>
+        <v>0.4918300653594771</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>0.48366013071895425</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9668327370130694</v>
+        <v>0.6574251195821748</v>
       </c>
       <c r="L35" t="n">
-        <v>2.6772312624232333</v>
+        <v>1.3106269939064874</v>
       </c>
       <c r="M35" t="n">
-        <v>0.4717628385643336</v>
+        <v>10.383942590495</v>
       </c>
       <c r="N35" t="n">
-        <v>0.14028979570938505</v>
+        <v>5.680054998850768</v>
       </c>
       <c r="O35" t="n">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="P35" t="n">
-        <v>0.218436873747495</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.8257861275774631</v>
+        <v>0.6584198822547395</v>
       </c>
       <c r="R35" t="n">
-        <v>499.0</v>
+        <v>612.0</v>
       </c>
       <c r="S35" t="n">
-        <v>19531.0</v>
+        <v>18902.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D36" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E36" t="n">
-        <v>24.0</v>
+        <v>0.2255687279718039</v>
       </c>
       <c r="F36" t="n">
-        <v>1.0</v>
+        <v>0.24030759371996155</v>
       </c>
       <c r="G36" t="n">
-        <v>15.0</v>
+        <v>0.6180711310477411</v>
       </c>
       <c r="H36" t="n">
-        <v>24.0</v>
+        <v>0.1012495994873438</v>
       </c>
       <c r="I36" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9579560840633208</v>
+        <v>0.9396155057788501</v>
       </c>
       <c r="L36" t="n">
-        <v>2.9620948970115304</v>
+        <v>1.9119929844029835</v>
       </c>
       <c r="M36" t="n">
-        <v>0.15052992678306282</v>
+        <v>0.05072678730347078</v>
       </c>
       <c r="N36" t="n">
-        <v>0.04903742767907432</v>
+        <v>0.0013349154553544892</v>
       </c>
       <c r="O36" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.106</v>
+        <v>0.20890740147388656</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.9235362244636731</v>
+        <v>0.9780083264810937</v>
       </c>
       <c r="R36" t="n">
-        <v>500.0</v>
+        <v>3121.0</v>
       </c>
       <c r="S36" t="n">
-        <v>19531.0</v>
+        <v>20226.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="D37" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="E37" t="n">
-        <v>22.0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="F37" t="n">
-        <v>2.0</v>
+        <v>0.10820529584831644</v>
       </c>
       <c r="G37" t="n">
-        <v>9.0</v>
+        <v>0.38411245505067015</v>
       </c>
       <c r="H37" t="n">
-        <v>22.0</v>
+        <v>0.13108859104282444</v>
       </c>
       <c r="I37" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9668327370130694</v>
+        <v>0.9502646700161304</v>
       </c>
       <c r="L37" t="n">
-        <v>2.6772312624232333</v>
+        <v>1.9079055461273966</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4717628385643336</v>
+        <v>0.15044991594976762</v>
       </c>
       <c r="N37" t="n">
-        <v>0.14028979570938505</v>
+        <v>0.03394146148521704</v>
       </c>
       <c r="O37" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.218436873747495</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.8257861275774631</v>
+        <v>0.9466122227136722</v>
       </c>
       <c r="R37" t="n">
-        <v>499.0</v>
+        <v>3059.0</v>
       </c>
       <c r="S37" t="n">
-        <v>19531.0</v>
+        <v>20226.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="D38" t="n">
-        <v>0.11</v>
+        <v>0.7276513937840435</v>
       </c>
       <c r="E38" t="n">
-        <v>0.186</v>
+        <v>0.2255687279718039</v>
       </c>
       <c r="F38" t="n">
-        <v>1.0</v>
+        <v>0.24030759371996155</v>
       </c>
       <c r="G38" t="n">
-        <v>0.81</v>
+        <v>0.6180711310477411</v>
       </c>
       <c r="H38" t="n">
-        <v>0.258</v>
+        <v>0.20762576097404678</v>
       </c>
       <c r="I38" t="n">
-        <v>0.116</v>
+        <v>0.2899711630887536</v>
       </c>
       <c r="J38" t="n">
-        <v>0.11</v>
+        <v>0.2915732137135533</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9579560840633208</v>
+        <v>0.9396155057788501</v>
       </c>
       <c r="L38" t="n">
-        <v>2.9620948970115304</v>
+        <v>1.9119929844029835</v>
       </c>
       <c r="M38" t="n">
-        <v>0.15052992678306282</v>
+        <v>0.05072678730347078</v>
       </c>
       <c r="N38" t="n">
-        <v>0.04903742767907432</v>
+        <v>0.0013349154553544892</v>
       </c>
       <c r="O38" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.106</v>
+        <v>0.20890740147388656</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9235362244636731</v>
+        <v>0.9780083264810937</v>
       </c>
       <c r="R38" t="n">
-        <v>500.0</v>
+        <v>3121.0</v>
       </c>
       <c r="S38" t="n">
-        <v>19531.0</v>
+        <v>20226.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="D39" t="n">
-        <v>0.23446893787575152</v>
+        <v>0.525335076822491</v>
       </c>
       <c r="E39" t="n">
-        <v>0.16432865731462926</v>
+        <v>0.2069303694017653</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9839679358717435</v>
+        <v>0.3295194508009153</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5390781563126252</v>
+        <v>0.38411245505067015</v>
       </c>
       <c r="H39" t="n">
-        <v>0.21442885771543085</v>
+        <v>0.20921869892121608</v>
       </c>
       <c r="I39" t="n">
-        <v>0.29458917835671344</v>
+        <v>0.2167374959136973</v>
       </c>
       <c r="J39" t="n">
-        <v>0.25851703406813625</v>
+        <v>0.21967963386727687</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9668327370130694</v>
+        <v>0.9502646700161304</v>
       </c>
       <c r="L39" t="n">
-        <v>2.6772312624232333</v>
+        <v>1.9079055461273966</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4717628385643336</v>
+        <v>0.15044991594976762</v>
       </c>
       <c r="N39" t="n">
-        <v>0.14028979570938505</v>
+        <v>0.03394146148521704</v>
       </c>
       <c r="O39" t="n">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="P39" t="n">
-        <v>0.218436873747495</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.8257861275774631</v>
+        <v>0.9466122227136722</v>
       </c>
       <c r="R39" t="n">
-        <v>499.0</v>
+        <v>3059.0</v>
       </c>
       <c r="S39" t="n">
-        <v>19531.0</v>
+        <v>20226.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -7049,54 +7046,54 @@
         <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.17699115044247787</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9911504424778761</v>
+        <v>0.4542483660130719</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7721238938053098</v>
+        <v>0.00980392156862745</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13938053097345132</v>
+        <v>0.014705882352941176</v>
       </c>
       <c r="I40" t="n">
-        <v>0.05088495575221239</v>
+        <v>0.0032679738562091504</v>
       </c>
       <c r="J40" t="n">
         <v>0.0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9671998868812455</v>
+        <v>0.17803823786232117</v>
       </c>
       <c r="L40" t="n">
-        <v>2.7650550438048658</v>
+        <v>1.5261944513417405</v>
       </c>
       <c r="M40" t="n">
-        <v>0.2383696708790446</v>
+        <v>5.746989771697381</v>
       </c>
       <c r="N40" t="n">
-        <v>0.07979215849650506</v>
+        <v>4.281299900737992</v>
       </c>
       <c r="O40" t="n">
-        <v>23.0</v>
+        <v>6.0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.1570796460176991</v>
+        <v>0.40032679738562094</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.9087617501502372</v>
+        <v>0.7258202937354361</v>
       </c>
       <c r="R40" t="n">
-        <v>452.0</v>
+        <v>612.0</v>
       </c>
       <c r="S40" t="n">
-        <v>21603.0</v>
+        <v>23171.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
@@ -7108,54 +7105,54 @@
         <v>0.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.19911504424778761</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="F41" t="n">
-        <v>0.995575221238938</v>
+        <v>0.369281045751634</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5995575221238938</v>
+        <v>0.14215686274509803</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07964601769911504</v>
+        <v>0.13071895424836602</v>
       </c>
       <c r="I41" t="n">
-        <v>0.059734513274336286</v>
+        <v>0.0032679738562091504</v>
       </c>
       <c r="J41" t="n">
         <v>0.0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9387770768358814</v>
+        <v>0.17290432328042388</v>
       </c>
       <c r="L41" t="n">
-        <v>2.688997583987383</v>
+        <v>1.4651571096053801</v>
       </c>
       <c r="M41" t="n">
-        <v>0.6686339860204602</v>
+        <v>39.867938371239916</v>
       </c>
       <c r="N41" t="n">
-        <v>0.24196870804980786</v>
+        <v>22.61378447196927</v>
       </c>
       <c r="O41" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="P41" t="n">
-        <v>0.2345132743362832</v>
+        <v>0.5065359477124183</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.8118354792578383</v>
+        <v>0.739803430759037</v>
       </c>
       <c r="R41" t="n">
-        <v>452.0</v>
+        <v>612.0</v>
       </c>
       <c r="S41" t="n">
-        <v>21603.0</v>
+        <v>23171.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -7164,57 +7161,57 @@
         <v>0.3</v>
       </c>
       <c r="D42" t="n">
-        <v>16.0</v>
+        <v>0.39869281045751637</v>
       </c>
       <c r="E42" t="n">
-        <v>19.0</v>
+        <v>0.38562091503267976</v>
       </c>
       <c r="F42" t="n">
-        <v>2.0</v>
+        <v>0.4542483660130719</v>
       </c>
       <c r="G42" t="n">
-        <v>14.0</v>
+        <v>0.40032679738562094</v>
       </c>
       <c r="H42" t="n">
-        <v>21.0</v>
+        <v>0.39869281045751637</v>
       </c>
       <c r="I42" t="n">
-        <v>19.0</v>
+        <v>0.4019607843137255</v>
       </c>
       <c r="J42" t="n">
-        <v>19.0</v>
+        <v>0.4019607843137255</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9671998868812455</v>
+        <v>0.17803823786232117</v>
       </c>
       <c r="L42" t="n">
-        <v>2.7650550438048658</v>
+        <v>1.5261944513417405</v>
       </c>
       <c r="M42" t="n">
-        <v>0.2383696708790446</v>
+        <v>5.746989771697381</v>
       </c>
       <c r="N42" t="n">
-        <v>0.07979215849650506</v>
+        <v>4.281299900737992</v>
       </c>
       <c r="O42" t="n">
-        <v>23.0</v>
+        <v>6.0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.1570796460176991</v>
+        <v>0.40032679738562094</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9087617501502372</v>
+        <v>0.7258202937354361</v>
       </c>
       <c r="R42" t="n">
-        <v>452.0</v>
+        <v>612.0</v>
       </c>
       <c r="S42" t="n">
-        <v>21603.0</v>
+        <v>23171.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
@@ -7223,1231 +7220,51 @@
         <v>0.7</v>
       </c>
       <c r="D43" t="n">
-        <v>23.0</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="n">
-        <v>22.0</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="F43" t="n">
-        <v>2.0</v>
+        <v>0.369281045751634</v>
       </c>
       <c r="G43" t="n">
-        <v>11.0</v>
+        <v>0.5245098039215687</v>
       </c>
       <c r="H43" t="n">
-        <v>21.0</v>
+        <v>0.47058823529411764</v>
       </c>
       <c r="I43" t="n">
-        <v>14.0</v>
+        <v>0.5130718954248366</v>
       </c>
       <c r="J43" t="n">
-        <v>22.0</v>
+        <v>0.5163398692810458</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9387770768358814</v>
+        <v>0.17290432328042388</v>
       </c>
       <c r="L43" t="n">
-        <v>2.688997583987383</v>
+        <v>1.4651571096053801</v>
       </c>
       <c r="M43" t="n">
-        <v>0.6686339860204602</v>
+        <v>39.867938371239916</v>
       </c>
       <c r="N43" t="n">
-        <v>0.24196870804980786</v>
+        <v>22.61378447196927</v>
       </c>
       <c r="O43" t="n">
-        <v>25.0</v>
+        <v>6.0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.2345132743362832</v>
+        <v>0.5065359477124183</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.8118354792578383</v>
+        <v>0.739803430759037</v>
       </c>
       <c r="R43" t="n">
-        <v>452.0</v>
+        <v>612.0</v>
       </c>
       <c r="S43" t="n">
-        <v>21603.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.19690265486725664</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.17699115044247787</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.9911504424778761</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.7721238938053098</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.13938053097345132</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.20575221238938052</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.14601769911504425</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.9671998868812455</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.7650550438048658</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.2383696708790446</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.07979215849650506</v>
-      </c>
-      <c r="O44" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.1570796460176991</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.9087617501502372</v>
-      </c>
-      <c r="R44" t="n">
-        <v>452.0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>21603.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.12389380530973451</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.19911504424778761</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.995575221238938</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.5995575221238938</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.28982300884955753</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.36283185840707965</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.23893805309734514</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.9387770768358814</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.688997583987383</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.6686339860204602</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.24196870804980786</v>
-      </c>
-      <c r="O45" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.2345132743362832</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.8118354792578383</v>
-      </c>
-      <c r="R45" t="n">
-        <v>452.0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>21603.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.06045751633986928</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.3431372549019608</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.06045751633986928</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.03594771241830065</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.004901960784313725</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.5564127861613686</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.632560737479132</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2.7133750455784016</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1.317259580602684</v>
-      </c>
-      <c r="O46" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.39869281045751637</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.7900575759524704</v>
-      </c>
-      <c r="R46" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>18902.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.06372549019607843</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.31209150326797386</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.0392156862745098</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.004901960784313725</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.011437908496732025</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.6574251195821748</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.3106269939064874</v>
-      </c>
-      <c r="M47" t="n">
-        <v>10.383942590495</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5.680054998850768</v>
-      </c>
-      <c r="O47" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.49019607843137253</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.6584198822547395</v>
-      </c>
-      <c r="R47" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>18902.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D48" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.5564127861613686</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.632560737479132</v>
-      </c>
-      <c r="M48" t="n">
-        <v>2.7133750455784016</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1.317259580602684</v>
-      </c>
-      <c r="O48" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0.39869281045751637</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.7900575759524704</v>
-      </c>
-      <c r="R48" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>18902.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D49" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.6574251195821748</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1.3106269939064874</v>
-      </c>
-      <c r="M49" t="n">
-        <v>10.383942590495</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5.680054998850768</v>
-      </c>
-      <c r="O49" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0.49019607843137253</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0.6584198822547395</v>
-      </c>
-      <c r="R49" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>18902.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.380718954248366</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.3709150326797386</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.3431372549019608</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.37745098039215685</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.37745098039215685</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.3839869281045752</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.3839869281045752</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.5564127861613686</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.632560737479132</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2.7133750455784016</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.317259580602684</v>
-      </c>
-      <c r="O50" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0.39869281045751637</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.7900575759524704</v>
-      </c>
-      <c r="R50" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S50" t="n">
-        <v>18902.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.4722222222222222</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.4526143790849673</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.31209150326797386</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.46568627450980393</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.46568627450980393</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.4918300653594771</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.48366013071895425</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.6574251195821748</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.3106269939064874</v>
-      </c>
-      <c r="M51" t="n">
-        <v>10.383942590495</v>
-      </c>
-      <c r="N51" t="n">
-        <v>5.680054998850768</v>
-      </c>
-      <c r="O51" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0.49019607843137253</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0.6584198822547395</v>
-      </c>
-      <c r="R51" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S51" t="n">
-        <v>18902.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.2255687279718039</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.24030759371996155</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.6180711310477411</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.1012495994873438</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.9396155057788501</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.9119929844029835</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.05072678730347078</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.0013349154553544892</v>
-      </c>
-      <c r="O52" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.20890740147388656</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.9780083264810937</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3121.0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>20226.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.08695652173913043</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.10820529584831644</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.38411245505067015</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.13108859104282444</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.9502646700161304</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.9079055461273966</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.15044991594976762</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.03394146148521704</v>
-      </c>
-      <c r="O53" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.9466122227136722</v>
-      </c>
-      <c r="R53" t="n">
-        <v>3059.0</v>
-      </c>
-      <c r="S53" t="n">
-        <v>20226.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D54" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.9396155057788501</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.9119929844029835</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.05072678730347078</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0.0013349154553544892</v>
-      </c>
-      <c r="O54" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0.20890740147388656</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.9780083264810937</v>
-      </c>
-      <c r="R54" t="n">
-        <v>3121.0</v>
-      </c>
-      <c r="S54" t="n">
-        <v>20226.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D55" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.9502646700161304</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1.9079055461273966</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.15044991594976762</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0.03394146148521704</v>
-      </c>
-      <c r="O55" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.9466122227136722</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3059.0</v>
-      </c>
-      <c r="S55" t="n">
-        <v>20226.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.7276513937840435</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.2255687279718039</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.24030759371996155</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.6180711310477411</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.20762576097404678</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.2899711630887536</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.2915732137135533</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.9396155057788501</v>
-      </c>
-      <c r="L56" t="n">
-        <v>1.9119929844029835</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.05072678730347078</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0.0013349154553544892</v>
-      </c>
-      <c r="O56" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0.20890740147388656</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.9780083264810937</v>
-      </c>
-      <c r="R56" t="n">
-        <v>3121.0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>20226.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.525335076822491</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.2069303694017653</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.3295194508009153</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.38411245505067015</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.20921869892121608</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.2167374959136973</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.21967963386727687</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.9502646700161304</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1.9079055461273966</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.15044991594976762</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0.03394146148521704</v>
-      </c>
-      <c r="O57" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0.9466122227136722</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3059.0</v>
-      </c>
-      <c r="S57" t="n">
-        <v>20226.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.05228758169934641</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.4542483660130719</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.00980392156862745</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.014705882352941176</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.0032679738562091504</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.17803823786232117</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.5261944513417405</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5.746989771697381</v>
-      </c>
-      <c r="N58" t="n">
-        <v>4.281299900737992</v>
-      </c>
-      <c r="O58" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0.40032679738562094</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0.7258202937354361</v>
-      </c>
-      <c r="R58" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S58" t="n">
-        <v>23171.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.05228758169934641</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.369281045751634</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.14215686274509803</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.13071895424836602</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.0032679738562091504</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.17290432328042388</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1.4651571096053801</v>
-      </c>
-      <c r="M59" t="n">
-        <v>39.867938371239916</v>
-      </c>
-      <c r="N59" t="n">
-        <v>22.61378447196927</v>
-      </c>
-      <c r="O59" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0.5065359477124183</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0.739803430759037</v>
-      </c>
-      <c r="R59" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S59" t="n">
-        <v>23171.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>33</v>
-      </c>
-      <c r="B60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D60" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.17803823786232117</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.5261944513417405</v>
-      </c>
-      <c r="M60" t="n">
-        <v>5.746989771697381</v>
-      </c>
-      <c r="N60" t="n">
-        <v>4.281299900737992</v>
-      </c>
-      <c r="O60" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0.40032679738562094</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0.7258202937354361</v>
-      </c>
-      <c r="R60" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S60" t="n">
-        <v>23171.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D61" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.17290432328042388</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.4651571096053801</v>
-      </c>
-      <c r="M61" t="n">
-        <v>39.867938371239916</v>
-      </c>
-      <c r="N61" t="n">
-        <v>22.61378447196927</v>
-      </c>
-      <c r="O61" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0.5065359477124183</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0.739803430759037</v>
-      </c>
-      <c r="R61" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S61" t="n">
-        <v>23171.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.39869281045751637</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.38562091503267976</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.4542483660130719</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.40032679738562094</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.39869281045751637</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.4019607843137255</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.4019607843137255</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.17803823786232117</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.5261944513417405</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5.746989771697381</v>
-      </c>
-      <c r="N62" t="n">
-        <v>4.281299900737992</v>
-      </c>
-      <c r="O62" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0.40032679738562094</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0.7258202937354361</v>
-      </c>
-      <c r="R62" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S62" t="n">
-        <v>23171.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.4852941176470588</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.369281045751634</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.5245098039215687</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.5130718954248366</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5163398692810458</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.17290432328042388</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.4651571096053801</v>
-      </c>
-      <c r="M63" t="n">
-        <v>39.867938371239916</v>
-      </c>
-      <c r="N63" t="n">
-        <v>22.61378447196927</v>
-      </c>
-      <c r="O63" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.5065359477124183</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0.739803430759037</v>
-      </c>
-      <c r="R63" t="n">
-        <v>612.0</v>
-      </c>
-      <c r="S63" t="n">
         <v>23171.0</v>
       </c>
     </row>
